--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B39BA11-8492-43F9-8341-149A54348D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EA0882-B723-4977-839C-C7B4FE956A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="286">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>DISPOSITION_RECORD</t>
+  </si>
+  <si>
+    <t>FOLIO_DISPOSITION_TAB</t>
   </si>
 </sst>
 </file>
@@ -4351,26 +4354,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4381,55 +4395,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>268</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>270</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>271</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>272</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>273</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -4441,9 +4458,7 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>21</v>
       </c>
@@ -4451,22 +4466,25 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>249</v>
       </c>
@@ -4482,40 +4500,43 @@
       <c r="E3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="K3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N8" s="2"/>
+      <c r="N3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EA0882-B723-4977-839C-C7B4FE956A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A292489-4B32-4DD2-9F94-C7659C874C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="289">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -272,30 +272,6 @@
     <t>FOLIO_CORRESPONDENCE_TAB</t>
   </si>
   <si>
-    <t>CACI Report</t>
-  </si>
-  <si>
-    <t>nextBtn</t>
-  </si>
-  <si>
-    <t>NameUnitWithinCounty</t>
-  </si>
-  <si>
-    <t>ReturnAddressWithinCounty</t>
-  </si>
-  <si>
-    <t>PhototakenofSubstantiatedAllegation</t>
-  </si>
-  <si>
-    <t>CrossReportSCAR</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>AgencyType</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -909,6 +885,39 @@
   </si>
   <si>
     <t>FOLIO_DISPOSITION_TAB</t>
+  </si>
+  <si>
+    <t>NEXT_BTN</t>
+  </si>
+  <si>
+    <t>PERPARATOR</t>
+  </si>
+  <si>
+    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>NAME_UNIT_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>CACI_REPORT</t>
+  </si>
+  <si>
+    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
+  </si>
+  <si>
+    <t>CROSSREPORT_SCAR</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>AGENCY_TYPE</t>
+  </si>
+  <si>
+    <t>Boardaman</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -985,7 +994,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,6 +1019,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1023,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1064,6 +1079,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,37 +1443,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K1" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>256</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>264</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>11</v>
@@ -1532,7 +1550,7 @@
     </row>
     <row r="3" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -1556,10 +1574,10 @@
         <v>23</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>26</v>
@@ -1574,12 +1592,12 @@
         <v>21</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B4" s="29">
         <v>1</v>
@@ -1603,10 +1621,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K4" s="29" t="s">
         <v>26</v>
@@ -1621,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -1689,60 +1707,60 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>218</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1757,34 +1775,34 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -1793,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="S2" t="s">
         <v>21</v>
@@ -1804,7 +1822,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -1819,34 +1837,34 @@
         <v>21</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P3" s="29" t="s">
         <v>21</v>
@@ -1855,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="S3" s="29" t="s">
         <v>21</v>
@@ -1866,7 +1884,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B4" s="29">
         <v>1</v>
@@ -1881,34 +1899,34 @@
         <v>21</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P4" s="29" t="s">
         <v>21</v>
@@ -1917,7 +1935,7 @@
         <v>21</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="S4" s="29" t="s">
         <v>21</v>
@@ -1966,42 +1984,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B2" s="29">
         <v>1</v>
@@ -2010,13 +2028,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>34</v>
@@ -2037,7 +2055,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>21</v>
@@ -2045,7 +2063,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -2054,13 +2072,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>34</v>
@@ -2081,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>21</v>
@@ -2152,100 +2170,100 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="O1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="U1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="Z1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="AJ1" s="9" t="s">
         <v>18</v>
@@ -2259,7 +2277,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2271,40 +2289,40 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="P2" s="8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>21</v>
@@ -2313,69 +2331,69 @@
         <v>21</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -2387,40 +2405,40 @@
         <v>21</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="O3" s="38" t="s">
-        <v>238</v>
-      </c>
       <c r="P3" s="38" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q3" s="38" t="s">
         <v>21</v>
@@ -2429,64 +2447,64 @@
         <v>21</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="T3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="U3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="W3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Y3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Z3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AA3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AB3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AC3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AD3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AE3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AF3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AH3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AI3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AJ3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AK3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AL3" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.35">
@@ -3128,13 +3146,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>9</v>
@@ -3142,7 +3160,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3157,10 +3175,10 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -3248,133 +3266,133 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="AF1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="AH1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="AK1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="AM1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="AU1" s="9" t="s">
         <v>18</v>
@@ -3386,36 +3404,36 @@
         <v>10</v>
       </c>
       <c r="AX1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF1" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -3433,165 +3451,165 @@
         <v>34</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="S2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="W2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Y2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Z2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AA2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AB2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AC2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AD2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AE2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AF2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AH2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AI2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AJ2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AK2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AL2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AM2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AN2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AO2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AP2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AQ2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AR2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AS2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AT2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AU2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AV2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AW2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AX2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AY2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AZ2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BA2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BB2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BC2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BD2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BE2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BF2" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -3609,160 +3627,160 @@
         <v>34</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="S3" s="29" t="s">
         <v>21</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Y3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AA3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AB3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AC3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AD3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AE3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AF3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AH3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AI3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AJ3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AK3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AL3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AM3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AN3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AO3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AP3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AQ3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AR3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AS3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AT3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AU3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AV3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AW3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AX3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AY3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AZ3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BA3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BB3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BC3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BD3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BE3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BF3" s="29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3816,52 +3834,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="L1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>11</v>
@@ -3870,13 +3888,13 @@
         <v>12</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>31</v>
@@ -3893,10 +3911,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -3905,46 +3923,46 @@
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -3958,10 +3976,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -3970,46 +3988,46 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -4100,94 +4118,94 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="N1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="T1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -4204,91 +4222,91 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -4356,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4395,37 +4413,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>29</v>
@@ -4486,7 +4504,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -5167,7 +5185,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -5193,7 +5211,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -5211,7 +5229,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5255,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>40</v>
@@ -5270,15 +5288,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5293,7 +5311,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>21</v>
@@ -5311,7 +5329,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5846,10 +5864,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5858,19 +5876,20 @@
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5884,34 +5903,40 @@
         <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>279</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -5933,20 +5958,19 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5963,28 +5987,66 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
       <c r="M3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G4" s="3"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="40">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="O4" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6013,24 +6075,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>21</v>
@@ -6039,12 +6101,12 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -6059,12 +6121,12 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
@@ -6079,12 +6141,12 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6099,12 +6161,12 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -6119,12 +6181,12 @@
         <v>21</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B7" s="12">
         <v>2</v>
@@ -6139,12 +6201,12 @@
         <v>21</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -6159,12 +6221,12 @@
         <v>21</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B9" s="12">
         <v>2</v>
@@ -6179,12 +6241,12 @@
         <v>21</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
@@ -6199,12 +6261,12 @@
         <v>21</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
@@ -6219,7 +6281,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A292489-4B32-4DD2-9F94-C7659C874C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B86AB-3A2F-41A1-A05F-CF5BBBFC7A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Assignments" sheetId="6" r:id="rId6"/>
     <sheet name="FatalityNearFatality" sheetId="7" r:id="rId7"/>
     <sheet name="FolioCorrespondence" sheetId="8" r:id="rId8"/>
-    <sheet name="Logout" sheetId="13" r:id="rId9"/>
-    <sheet name="FolioValidatePerson" sheetId="14" r:id="rId10"/>
-    <sheet name="FolioPerson" sheetId="16" r:id="rId11"/>
-    <sheet name="FolioContactLog" sheetId="9" r:id="rId12"/>
-    <sheet name="FolioAddendums" sheetId="15" r:id="rId13"/>
-    <sheet name="FolioTribalInquiry" sheetId="10" r:id="rId14"/>
-    <sheet name="FolioHistory" sheetId="11" r:id="rId15"/>
-    <sheet name="FolioScreeningReview" sheetId="12" r:id="rId16"/>
+    <sheet name="FolioDocuments" sheetId="17" r:id="rId9"/>
+    <sheet name="Logout" sheetId="13" r:id="rId10"/>
+    <sheet name="FolioValidatePerson" sheetId="14" r:id="rId11"/>
+    <sheet name="FolioPerson" sheetId="16" r:id="rId12"/>
+    <sheet name="FolioContactLog" sheetId="9" r:id="rId13"/>
+    <sheet name="FolioAddendums" sheetId="15" r:id="rId14"/>
+    <sheet name="FolioTribalInquiry" sheetId="10" r:id="rId15"/>
+    <sheet name="FolioHistory" sheetId="11" r:id="rId16"/>
+    <sheet name="FolioScreeningReview" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="294">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -918,6 +919,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>SOC_832_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_834_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_8583_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_833_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -1680,6 +1696,245 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E0121-A3E3-4E0C-A6C2-D14C419C35E6}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0466C4-2A7E-450A-B61A-8C9FD13A7C54}">
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -1950,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -2111,7 +2366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
   <dimension ref="A1:AL18"/>
   <sheetViews>
@@ -3113,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9DE1AC-8EA2-496B-95D5-07EEE381D497}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3189,7 +3444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF3"/>
   <sheetViews>
@@ -3788,7 +4043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
@@ -4065,7 +4320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CD396-3ADF-479F-9D73-2015DDAAC290}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
@@ -5866,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6051,236 +6306,72 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E0121-A3E3-4E0C-A6C2-D14C419C35E6}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7851AC2-5C82-450E-A354-E45745B7C5CE}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="12">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="12">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="D1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="40">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B86AB-3A2F-41A1-A05F-CF5BBBFC7A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C164DA6-0ADE-4427-8066-DA12C86801A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="294">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -6307,10 +6307,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7851AC2-5C82-450E-A354-E45745B7C5CE}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6318,9 +6318,13 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>241</v>
       </c>
@@ -6369,9 +6373,6 @@
         <v>74</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="26" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C164DA6-0ADE-4427-8066-DA12C86801A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E57433-AE89-4627-9AF1-6B0E3EE655CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="295">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -930,10 +930,13 @@
     <t>SOC_834_VERIFY</t>
   </si>
   <si>
-    <t>SOC_8583_VERIFY</t>
-  </si>
-  <si>
     <t>SOC_833_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8583_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E0121-A3E3-4E0C-A6C2-D14C419C35E6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -6307,10 +6313,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7851AC2-5C82-450E-A354-E45745B7C5CE}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6319,12 +6325,13 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="26" customWidth="1"/>
+    <col min="6" max="7" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6338,19 +6345,22 @@
         <v>289</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>241</v>
       </c>
@@ -6363,16 +6373,19 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6382,25 +6395,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6617,25 +6611,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6652,4 +6647,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E57433-AE89-4627-9AF1-6B0E3EE655CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D09BEC-568B-4A07-BF1F-5587812D7978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="296">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1101,6 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6125,32 +6129,33 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6188,16 +6193,19 @@
         <v>284</v>
       </c>
       <c r="M1" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -6229,7 +6237,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -6251,14 +6259,15 @@
       <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" t="s">
         <v>76</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>241</v>
       </c>
@@ -6293,15 +6302,62 @@
         <v>288</v>
       </c>
       <c r="L4" s="42"/>
-      <c r="O4" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M4" s="42"/>
+      <c r="P4" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="40">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40">
+        <v>2</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
@@ -6315,8 +6371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7851AC2-5C82-450E-A354-E45745B7C5CE}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D09BEC-568B-4A07-BF1F-5587812D7978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBCD7F4-7CA4-4713-A342-80B9607A2950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="306">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -940,6 +940,36 @@
   </si>
   <si>
     <t>AGENCY_NAME</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_NEWBTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>Cross Report</t>
+  </si>
+  <si>
+    <t>Manual Upload</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>SAVE</t>
   </si>
 </sst>
 </file>
@@ -6131,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -6369,10 +6399,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7851AC2-5C82-450E-A354-E45745B7C5CE}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6385,9 +6415,14 @@
     <col min="6" max="7" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6415,8 +6450,29 @@
       <c r="I1" s="5" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>241</v>
       </c>
@@ -6443,6 +6499,27 @@
       </c>
       <c r="I2" s="26" t="s">
         <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O2" t="s">
+        <v>304</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\March\03March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D311E3-42C9-40C6-9B6E-F137BE9C6AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F9F68F-D92B-4F52-B1A9-8D0716B1FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,21 @@
     <sheet name="FatalityNearFatality" sheetId="7" r:id="rId12"/>
     <sheet name="Correspondence" sheetId="8" r:id="rId13"/>
     <sheet name="Documents" sheetId="17" r:id="rId14"/>
-    <sheet name="GenerateDocument" sheetId="35" r:id="rId15"/>
-    <sheet name="ApprovalandAuditHistory" sheetId="19" r:id="rId16"/>
-    <sheet name="Logout" sheetId="13" r:id="rId17"/>
-    <sheet name="ValidatePerson" sheetId="14" r:id="rId18"/>
-    <sheet name="Person" sheetId="16" r:id="rId19"/>
-    <sheet name="NewCase" sheetId="21" r:id="rId20"/>
-    <sheet name="Addendums" sheetId="15" r:id="rId21"/>
-    <sheet name="RefHistory" sheetId="11" r:id="rId22"/>
-    <sheet name="ScreeningReview" sheetId="12" r:id="rId23"/>
-    <sheet name="SubmitForApproval" sheetId="18" r:id="rId24"/>
-    <sheet name="ProviderSearch" sheetId="30" r:id="rId25"/>
-    <sheet name="ProviderOptions" sheetId="31" r:id="rId26"/>
-    <sheet name="Removal" sheetId="32" r:id="rId27"/>
-    <sheet name="ChildLocations" sheetId="33" r:id="rId28"/>
+    <sheet name="FolioTask" sheetId="36" r:id="rId15"/>
+    <sheet name="GenerateDocument" sheetId="35" r:id="rId16"/>
+    <sheet name="ApprovalandAuditHistory" sheetId="19" r:id="rId17"/>
+    <sheet name="Logout" sheetId="13" r:id="rId18"/>
+    <sheet name="ValidatePerson" sheetId="14" r:id="rId19"/>
+    <sheet name="Person" sheetId="16" r:id="rId20"/>
+    <sheet name="NewCase" sheetId="21" r:id="rId21"/>
+    <sheet name="Addendums" sheetId="15" r:id="rId22"/>
+    <sheet name="RefHistory" sheetId="11" r:id="rId23"/>
+    <sheet name="ScreeningReview" sheetId="12" r:id="rId24"/>
+    <sheet name="SubmitForApproval" sheetId="18" r:id="rId25"/>
+    <sheet name="ProviderSearch" sheetId="30" r:id="rId26"/>
+    <sheet name="ProviderOptions" sheetId="31" r:id="rId27"/>
+    <sheet name="Removal" sheetId="32" r:id="rId28"/>
+    <sheet name="ChildLocations" sheetId="33" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Allegations!$A$1:$R$12</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="568">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -371,684 +372,687 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>personName2</t>
+    <t>Victim2</t>
+  </si>
+  <si>
+    <t>Victim1</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>randomText</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Victim1,Victim2,folioPersonName2</t>
+  </si>
+  <si>
+    <t>Victim1,Victim2,Perpetrator1,Perpetrator2,folioPersonName1,folioPersonName2</t>
+  </si>
+  <si>
+    <t>personName2,personName4</t>
+  </si>
+  <si>
+    <t>personName1,personName2,personName3,personName4</t>
+  </si>
+  <si>
+    <t>testT4148</t>
+  </si>
+  <si>
+    <t>TRIBAL_NEW_BTN</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD</t>
+  </si>
+  <si>
+    <t>STAFF_PERSON</t>
+  </si>
+  <si>
+    <t>OTHER_STAFF_PRESENT</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE</t>
+  </si>
+  <si>
+    <t>CONTINUED_ICWA_INQUIRY</t>
+  </si>
+  <si>
+    <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
+  </si>
+  <si>
+    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTMETHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUSNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHERLOCATION_VERIFY</t>
+  </si>
+  <si>
+    <t>REASONTOKNOWRATIONALE_VERIFY</t>
+  </si>
+  <si>
+    <t>INITIALICWAINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>INDIANCHILDINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>MEMBEROFTRIBAL_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON1_VERIFY</t>
+  </si>
+  <si>
+    <t>ISPARENTMEMBER_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON2_VERIFY</t>
+  </si>
+  <si>
+    <t>RESIDEONRESERVATION_VERIFY</t>
+  </si>
+  <si>
+    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>MemberofTribeAlaskaNativeVillage</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe1</t>
+  </si>
+  <si>
+    <t>IsParentMemberOfTribe</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe2</t>
+  </si>
+  <si>
+    <t>ReceivesServiceBenefitFromTribe</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe3</t>
+  </si>
+  <si>
+    <t>ResidesOnReservationTribalLand</t>
+  </si>
+  <si>
+    <t>AnyFamilyIdentifiedAncestryHeritage</t>
+  </si>
+  <si>
+    <t>ReceivesFederalServiceTribalBenefit</t>
+  </si>
+  <si>
+    <t>Tribal Inquiry</t>
+  </si>
+  <si>
+    <t>Clerical Worker1 Contra Costa</t>
+  </si>
+  <si>
+    <t>Reporting Party</t>
+  </si>
+  <si>
+    <t>Continue to Inquire</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Tribal Collaboration</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>SHOWMORE_BTN</t>
+  </si>
+  <si>
+    <t>ACTUAL_METHOD_ERNRD_SENT</t>
+  </si>
+  <si>
+    <t>DATE_SENT</t>
+  </si>
+  <si>
+    <t>Emergency Response Notice of Referral Disposition (ERNRD)</t>
+  </si>
+  <si>
+    <t>Email/Electronic</t>
+  </si>
+  <si>
+    <t>PROMOTETOCASE_BTN</t>
+  </si>
+  <si>
+    <t>CASE_TYPE</t>
+  </si>
+  <si>
+    <t>PRIMARY_RESP_AGENCY</t>
+  </si>
+  <si>
+    <t>SECONDARY_RESP_AGENCY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENT</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_DESK</t>
+  </si>
+  <si>
+    <t>PRIMARY_WORKER</t>
+  </si>
+  <si>
+    <t>Child Welfare Court</t>
+  </si>
+  <si>
+    <t>Title IV-E Indian Tribe</t>
+  </si>
+  <si>
+    <t>Juvenile Probation</t>
+  </si>
+  <si>
+    <t>Family Maintenance No Placement</t>
+  </si>
+  <si>
+    <t>CMWorkerContraCosta</t>
+  </si>
+  <si>
+    <t>RELATED_FOLIOS_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
+  </si>
+  <si>
+    <t>CSE_PERSON</t>
+  </si>
+  <si>
+    <t>SelectFolioPersonRB</t>
+  </si>
+  <si>
+    <t>NextBt</t>
+  </si>
+  <si>
+    <t>CSEType</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>saveBtn</t>
+  </si>
+  <si>
+    <t>AddInstancesofCommercialSexualExploitation</t>
+  </si>
+  <si>
+    <t>CSEType1</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>At Risk</t>
+  </si>
+  <si>
+    <t>Victim Before Foster Care</t>
+  </si>
+  <si>
+    <t>FOLIO_AdministrativeHearings_TAB</t>
+  </si>
+  <si>
+    <t>newBtn</t>
+  </si>
+  <si>
+    <t>CorrespondenceID</t>
+  </si>
+  <si>
+    <t>allegedPerpetrator</t>
+  </si>
+  <si>
+    <t>PerpetratorNotificationMethod</t>
+  </si>
+  <si>
+    <t>SOC834ResponseReceivedDate</t>
+  </si>
+  <si>
+    <t>DOJNotificationDate</t>
+  </si>
+  <si>
+    <t>PerpetratorNotificationDate</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>FOLIO_DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>PATHWAY</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR_LINK</t>
+  </si>
+  <si>
+    <t>INVESTIGATION_CLOSED_DATE</t>
+  </si>
+  <si>
+    <t>FOLIOREF_VERIFY</t>
+  </si>
+  <si>
+    <t>RECORD_STATUS</t>
+  </si>
+  <si>
+    <t>REFERRAL_CLOSED_DATE</t>
+  </si>
+  <si>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>ERSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Pending Approval</t>
+  </si>
+  <si>
+    <t>Recalled</t>
+  </si>
+  <si>
+    <t>Resubmitted</t>
+  </si>
+  <si>
+    <t>ASSIGNMENTS_TAB</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>PERSON_LINK</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>WORKER_ROLE</t>
+  </si>
+  <si>
+    <t>FOLIO_ASSIGNMENT_ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
+    <t>HLSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Adoptions Worker</t>
+  </si>
+  <si>
+    <t>autoText</t>
+  </si>
+  <si>
+    <t>Case Aide</t>
+  </si>
+  <si>
+    <t>testPOM</t>
+  </si>
+  <si>
+    <t>ASN-000001507319</t>
+  </si>
+  <si>
+    <t>CMManagerContraCosta</t>
+  </si>
+  <si>
+    <t>testT4258</t>
+  </si>
+  <si>
+    <t>Placement Worker</t>
+  </si>
+  <si>
+    <t>FOLIO_NEARFATALITY_TAB</t>
+  </si>
+  <si>
+    <t>allegedVictim</t>
+  </si>
+  <si>
+    <t>isChildFatalityNear</t>
+  </si>
+  <si>
+    <t>CircumstanceType</t>
+  </si>
+  <si>
+    <t>CircumstanceComments</t>
+  </si>
+  <si>
+    <t>CountyOfIncident</t>
+  </si>
+  <si>
+    <t>ResidenceTimeFatalityNearFat</t>
+  </si>
+  <si>
+    <t>IsFatalityNearDateKnown</t>
+  </si>
+  <si>
+    <t>DateFatalityNear</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_FATALITY_OR_NEARFATALITY</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Fatality</t>
+  </si>
+  <si>
+    <t>Accidental</t>
+  </si>
+  <si>
+    <t>Calaveras</t>
+  </si>
+  <si>
+    <t>Foster Care/Out-of-Home Care</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
   </si>
   <si>
     <t>personName1</t>
   </si>
   <si>
-    <t>In-Person</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>randomText</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Victim1,Victim2,folioPersonName2</t>
-  </si>
-  <si>
-    <t>Victim1,Victim2,Perpetrator1,Perpetrator2,folioPersonName1,folioPersonName2</t>
-  </si>
-  <si>
-    <t>personName2,personName4</t>
-  </si>
-  <si>
-    <t>personName1,personName2,personName3,personName4</t>
-  </si>
-  <si>
-    <t>testT4148</t>
-  </si>
-  <si>
-    <t>TRIBAL_NEW_BTN</t>
-  </si>
-  <si>
-    <t>CONTACT_START_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONTACT_METHOD</t>
-  </si>
-  <si>
-    <t>STAFF_PERSON</t>
-  </si>
-  <si>
-    <t>OTHER_STAFF_PRESENT</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE</t>
-  </si>
-  <si>
-    <t>CONTINUED_ICWA_INQUIRY</t>
-  </si>
-  <si>
-    <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
-  </si>
-  <si>
-    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTMETHOD_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUSNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHERLOCATION_VERIFY</t>
-  </si>
-  <si>
-    <t>REASONTOKNOWRATIONALE_VERIFY</t>
-  </si>
-  <si>
-    <t>INITIALICWAINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>INDIANCHILDINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>MEMBEROFTRIBAL_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON1_VERIFY</t>
-  </si>
-  <si>
-    <t>ISPARENTMEMBER_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON2_VERIFY</t>
-  </si>
-  <si>
-    <t>RESIDEONRESERVATION_VERIFY</t>
-  </si>
-  <si>
-    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>MemberofTribeAlaskaNativeVillage</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe1</t>
-  </si>
-  <si>
-    <t>IsParentMemberOfTribe</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe2</t>
-  </si>
-  <si>
-    <t>ReceivesServiceBenefitFromTribe</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe3</t>
-  </si>
-  <si>
-    <t>ResidesOnReservationTribalLand</t>
-  </si>
-  <si>
-    <t>AnyFamilyIdentifiedAncestryHeritage</t>
-  </si>
-  <si>
-    <t>ReceivesFederalServiceTribalBenefit</t>
-  </si>
-  <si>
-    <t>Tribal Inquiry</t>
-  </si>
-  <si>
-    <t>Clerical Worker1 Contra Costa</t>
-  </si>
-  <si>
-    <t>Reporting Party</t>
-  </si>
-  <si>
-    <t>Continue to Inquire</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Tribal Collaboration</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>GENERATE_BTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>SHOWMORE_BTN</t>
-  </si>
-  <si>
-    <t>ACTUAL_METHOD_ERNRD_SENT</t>
-  </si>
-  <si>
-    <t>DATE_SENT</t>
-  </si>
-  <si>
-    <t>Emergency Response Notice of Referral Disposition (ERNRD)</t>
-  </si>
-  <si>
-    <t>Email/Electronic</t>
-  </si>
-  <si>
-    <t>PROMOTETOCASE_BTN</t>
-  </si>
-  <si>
-    <t>CASE_TYPE</t>
-  </si>
-  <si>
-    <t>PRIMARY_RESP_AGENCY</t>
-  </si>
-  <si>
-    <t>SECONDARY_RESP_AGENCY</t>
-  </si>
-  <si>
-    <t>SERVICE_COMPONENT</t>
-  </si>
-  <si>
-    <t>ASSIGNMENT_DESK</t>
-  </si>
-  <si>
-    <t>PRIMARY_WORKER</t>
-  </si>
-  <si>
-    <t>Child Welfare Court</t>
-  </si>
-  <si>
-    <t>Title IV-E Indian Tribe</t>
-  </si>
-  <si>
-    <t>Juvenile Probation</t>
-  </si>
-  <si>
-    <t>Family Maintenance No Placement</t>
-  </si>
-  <si>
-    <t>CMWorkerContraCosta</t>
-  </si>
-  <si>
-    <t>RELATED_FOLIOS_TAB</t>
-  </si>
-  <si>
-    <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
-  </si>
-  <si>
-    <t>CSE_PERSON</t>
-  </si>
-  <si>
-    <t>SelectFolioPersonRB</t>
-  </si>
-  <si>
-    <t>NextBt</t>
-  </si>
-  <si>
-    <t>CSEType</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>saveBtn</t>
-  </si>
-  <si>
-    <t>AddInstancesofCommercialSexualExploitation</t>
-  </si>
-  <si>
-    <t>CSEType1</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>At Risk</t>
-  </si>
-  <si>
-    <t>Victim Before Foster Care</t>
-  </si>
-  <si>
-    <t>personName4</t>
-  </si>
-  <si>
-    <t>FOLIO_AdministrativeHearings_TAB</t>
-  </si>
-  <si>
-    <t>newBtn</t>
-  </si>
-  <si>
-    <t>CorrespondenceID</t>
-  </si>
-  <si>
-    <t>allegedPerpetrator</t>
-  </si>
-  <si>
-    <t>PerpetratorNotificationMethod</t>
-  </si>
-  <si>
-    <t>SOC834ResponseReceivedDate</t>
-  </si>
-  <si>
-    <t>DOJNotificationDate</t>
-  </si>
-  <si>
-    <t>PerpetratorNotificationDate</t>
-  </si>
-  <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>FOLIO_DETAILS_TAB</t>
-  </si>
-  <si>
-    <t>PATHWAY</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR_LINK</t>
-  </si>
-  <si>
-    <t>INVESTIGATION_CLOSED_DATE</t>
-  </si>
-  <si>
-    <t>FOLIOREF_VERIFY</t>
-  </si>
-  <si>
-    <t>RECORD_STATUS</t>
-  </si>
-  <si>
-    <t>REFERRAL_CLOSED_DATE</t>
+    <t>FOLIO_CORRESPONDENCE_TAB</t>
+  </si>
+  <si>
+    <t>CACI_REPORT</t>
+  </si>
+  <si>
+    <t>PERPARATOR</t>
+  </si>
+  <si>
+    <t>NAME_UNIT_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>CROSSREPORT_SCAR</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>AGENCY_TYPE</t>
+  </si>
+  <si>
+    <t>CACI_REPORTID</t>
+  </si>
+  <si>
+    <t>CORRESPONDECE_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>REPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>CACI_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CROSS_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_VERIFY</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>pom Test</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Department of Justice</t>
+  </si>
+  <si>
+    <t>Boardaman</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenDigitsNumber </t>
+  </si>
+  <si>
+    <t>CACI Report</t>
+  </si>
+  <si>
+    <t>Not Generated</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>CACI REPORTID</t>
+  </si>
+  <si>
+    <t>Ready to Send</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>CROSS REPORTID</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_FOLIO_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_SCREENING_TAB</t>
+  </si>
+  <si>
+    <t>SOC_832_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_834_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8583_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_833_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8572_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_NEWBTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>UPLOADED_DOC_VERIFY</t>
+  </si>
+  <si>
+    <t>TITLE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>SHOW_ACTIONS</t>
+  </si>
+  <si>
+    <t>DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>SCR_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_CLICK</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>UPDATE_CATEGORY</t>
+  </si>
+  <si>
+    <t>SCAR</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral Information.pdf</t>
+  </si>
+  <si>
+    <t>Response to Mandated Reporter.pdf</t>
+  </si>
+  <si>
+    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
+  </si>
+  <si>
+    <t>Cross Report</t>
+  </si>
+  <si>
+    <t>Manual Upload</t>
+  </si>
+  <si>
+    <t>CACI Notice</t>
+  </si>
+  <si>
+    <t>SOC 832 (Notice of CACI).pdf</t>
+  </si>
+  <si>
+    <t>SOC 834 (Request for Grievance).pdf</t>
+  </si>
+  <si>
+    <t>SOC 833 (Grievance Procedure).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8583 (CACI Index Form).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
   </si>
   <si>
     <t>Investigation</t>
   </si>
   <si>
-    <t>ERSupervisorContraCosta</t>
-  </si>
-  <si>
-    <t>Pending Approval</t>
-  </si>
-  <si>
-    <t>Recalled</t>
-  </si>
-  <si>
-    <t>Resubmitted</t>
-  </si>
-  <si>
-    <t>ASSIGNMENTS_TAB</t>
-  </si>
-  <si>
-    <t>PERSON</t>
-  </si>
-  <si>
-    <t>PERSON_LINK</t>
-  </si>
-  <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>WORKER_ROLE</t>
-  </si>
-  <si>
-    <t>FOLIO_ASSIGNMENT_ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>NEW_VALUE</t>
-  </si>
-  <si>
-    <t>HLSupervisorContraCosta</t>
-  </si>
-  <si>
-    <t>Adoptions Worker</t>
-  </si>
-  <si>
-    <t>autoText</t>
-  </si>
-  <si>
-    <t>Case Aide</t>
-  </si>
-  <si>
-    <t>testPOM</t>
-  </si>
-  <si>
-    <t>ASN-000001507319</t>
-  </si>
-  <si>
-    <t>CMManagerContraCosta</t>
-  </si>
-  <si>
-    <t>testT4258</t>
-  </si>
-  <si>
-    <t>Placement Worker</t>
-  </si>
-  <si>
-    <t>FOLIO_NEARFATALITY_TAB</t>
-  </si>
-  <si>
-    <t>allegedVictim</t>
-  </si>
-  <si>
-    <t>isChildFatalityNear</t>
-  </si>
-  <si>
-    <t>CircumstanceType</t>
-  </si>
-  <si>
-    <t>CircumstanceComments</t>
-  </si>
-  <si>
-    <t>CountyOfIncident</t>
-  </si>
-  <si>
-    <t>ResidenceTimeFatalityNearFat</t>
-  </si>
-  <si>
-    <t>IsFatalityNearDateKnown</t>
-  </si>
-  <si>
-    <t>DateFatalityNear</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_NAME</t>
-  </si>
-  <si>
-    <t>CHILD_FATALITY_OR_NEARFATALITY</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>Fatality</t>
-  </si>
-  <si>
-    <t>Accidental</t>
-  </si>
-  <si>
-    <t>Calaveras</t>
-  </si>
-  <si>
-    <t>Foster Care/Out-of-Home Care</t>
-  </si>
-  <si>
-    <t>Estimated</t>
-  </si>
-  <si>
-    <t>Contra Costa</t>
-  </si>
-  <si>
-    <t>FOLIO_CORRESPONDENCE_TAB</t>
-  </si>
-  <si>
-    <t>CACI_REPORT</t>
-  </si>
-  <si>
-    <t>PERPARATOR</t>
-  </si>
-  <si>
-    <t>NAME_UNIT_WITHIN_COUNTY</t>
-  </si>
-  <si>
-    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
-  </si>
-  <si>
-    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
-  </si>
-  <si>
-    <t>PHONE_NUMBER</t>
-  </si>
-  <si>
-    <t>CROSSREPORT_SCAR</t>
-  </si>
-  <si>
-    <t>AGENCY_NAME</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>AGENCY_TYPE</t>
-  </si>
-  <si>
-    <t>CACI_REPORTID</t>
-  </si>
-  <si>
-    <t>CORRESPONDECE_TYPE</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE</t>
-  </si>
-  <si>
-    <t>REPORTID_VERIFY</t>
-  </si>
-  <si>
-    <t>CACI_REPORT_ID</t>
-  </si>
-  <si>
-    <t>CROSS_REPORT_ID</t>
-  </si>
-  <si>
-    <t>CORRESPONDENCE_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>PERPETRATOR_VERIFY</t>
-  </si>
-  <si>
-    <t>AGENCY_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>CREATED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>pom Test</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>Department of Justice</t>
-  </si>
-  <si>
-    <t>Boardaman</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenDigitsNumber </t>
-  </si>
-  <si>
-    <t>CACI Report</t>
-  </si>
-  <si>
-    <t>Not Generated</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>CACI REPORTID</t>
-  </si>
-  <si>
-    <t>Ready to Send</t>
-  </si>
-  <si>
-    <t>Generated</t>
-  </si>
-  <si>
-    <t>CROSS REPORTID</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_FOLIO_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_SCREENING_TAB</t>
-  </si>
-  <si>
-    <t>SOC_832_VERIFY</t>
-  </si>
-  <si>
-    <t>SOC_834_VERIFY</t>
-  </si>
-  <si>
-    <t>BCIA_8583_VERIFY</t>
-  </si>
-  <si>
-    <t>SOC_833_VERIFY</t>
-  </si>
-  <si>
-    <t>BCIA_8572_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_NEWBTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>UPLOADED_DOC_VERIFY</t>
-  </si>
-  <si>
-    <t>TITLE_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_VERIFY</t>
-  </si>
-  <si>
-    <t>SHOW_ACTIONS</t>
-  </si>
-  <si>
-    <t>DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>SCR_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>PRINT</t>
-  </si>
-  <si>
-    <t>VIEW</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>DOWNLOAD</t>
-  </si>
-  <si>
-    <t>DOWNLOAD_CLICK</t>
-  </si>
-  <si>
-    <t>RENAME_DOCUMENT</t>
-  </si>
-  <si>
-    <t>UPLOAD_NEW_VERSION</t>
-  </si>
-  <si>
-    <t>UPDATE_STATUS</t>
-  </si>
-  <si>
-    <t>UPDATE_CATEGORY</t>
-  </si>
-  <si>
-    <t>SCAR</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>testdoc.txt</t>
-  </si>
-  <si>
-    <t>Emergency Response Referral Information.pdf</t>
-  </si>
-  <si>
-    <t>Response to Mandated Reporter.pdf</t>
-  </si>
-  <si>
-    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
-  </si>
-  <si>
-    <t>Cross Report</t>
-  </si>
-  <si>
-    <t>Manual Upload</t>
-  </si>
-  <si>
-    <t>CACI Notice</t>
-  </si>
-  <si>
-    <t>SOC 832 (Notice of CACI).pdf</t>
-  </si>
-  <si>
-    <t>SOC 834 (Request for Grievance).pdf</t>
-  </si>
-  <si>
-    <t>SOC 833 (Grievance Procedure).pdf</t>
-  </si>
-  <si>
-    <t>BCIA 8583 (CACI Index Form).pdf</t>
-  </si>
-  <si>
-    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -1286,6 +1290,12 @@
     <t>END_DATE</t>
   </si>
   <si>
+    <t>FOLIO_PERSON_NAME_LINK</t>
+  </si>
+  <si>
+    <t>POTENTIAL_TRIBAL_AFFILIATION</t>
+  </si>
+  <si>
     <t>Alleged Perpetrator</t>
   </si>
   <si>
@@ -1334,6 +1344,9 @@
     <t>CaseChildLocationSetup</t>
   </si>
   <si>
+    <t>Reason to Know</t>
+  </si>
+  <si>
     <t>PRIMARY_RESPONSIBLE_AGENCY</t>
   </si>
   <si>
@@ -1434,9 +1447,6 @@
   </si>
   <si>
     <t>Folio</t>
-  </si>
-  <si>
-    <t>Referral</t>
   </si>
   <si>
     <t>FOLIO_SCREENINGREVIEW_TAB</t>
@@ -1783,7 +1793,7 @@
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
   </si>
   <si>
-    <t>testT4149</t>
+    <t>VERIFY_TASK</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2090,6 +2100,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2407,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3263,8 +3274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3293,31 +3304,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="M1" s="51"/>
     </row>
@@ -3335,7 +3346,7 @@
         <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="51" t="s">
@@ -3361,11 +3372,11 @@
       <c r="D3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="49" t="s">
         <v>202</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>203</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>19</v>
@@ -3380,7 +3391,7 @@
         <v>149</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L3" s="49" t="s">
         <v>59</v>
@@ -3419,7 +3430,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>30</v>
@@ -3458,7 +3469,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
@@ -3517,11 +3528,11 @@
       <c r="D7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="71" t="s">
         <v>202</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>203</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>19</v>
@@ -3536,7 +3547,7 @@
         <v>149</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -3551,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="95" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3581,37 +3592,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>210</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>211</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="51" t="s">
         <v>214</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>215</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -3633,7 +3644,7 @@
         <v>181</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>19</v>
@@ -3642,7 +3653,7 @@
         <v>59</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>181</v>
@@ -3651,7 +3662,7 @@
         <v>19</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -3675,7 +3686,7 @@
         <v>181</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>19</v>
@@ -3684,7 +3695,7 @@
         <v>59</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>181</v>
@@ -3693,7 +3704,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -3702,7 +3713,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -3717,7 +3728,7 @@
         <v>181</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>19</v>
@@ -3726,16 +3737,16 @@
         <v>59</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>181</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>19</v>
@@ -3761,7 +3772,7 @@
         <v>181</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>19</v>
@@ -3770,7 +3781,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>181</v>
@@ -3792,7 +3803,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="70">
         <v>1</v>
@@ -3816,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="71" t="s">
         <v>181</v>
@@ -3846,7 +3857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27876FF1-279F-400F-8EDF-C44394A3BDAF}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3873,43 +3884,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>178</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3929,25 +3940,25 @@
         <v>181</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>59</v>
@@ -3981,19 +3992,19 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>59</v>
@@ -4002,10 +4013,10 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4427,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4451,6 +4462,7 @@
     <col min="18" max="20" width="8.81640625" style="28"/>
     <col min="21" max="21" width="13.1796875" style="28" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="8.54296875" style="39"/>
+    <col min="32" max="32" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="16" customFormat="1">
@@ -4794,7 +4806,7 @@
         <v>19</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O5" s="46" t="s">
         <v>277</v>
@@ -4930,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4973,7 +4985,7 @@
     <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17.7265625" style="51" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.54296875" style="39" customWidth="1"/>
     <col min="41" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
@@ -5027,7 +5039,7 @@
         <v>290</v>
       </c>
       <c r="Q1" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R1" s="43" t="s">
         <v>291</v>
@@ -5994,10 +6006,10 @@
         <v>19</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P9" s="49" t="s">
         <v>106</v>
@@ -6069,15 +6081,15 @@
         <v>149</v>
       </c>
       <c r="AM9" s="49" t="s">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="AN9" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" s="51" customFormat="1">
       <c r="A10" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -6116,10 +6128,10 @@
         <v>19</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P10" s="51" t="s">
         <v>106</v>
@@ -6160,8 +6172,6 @@
       <c r="AB10" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
       <c r="AE10" s="51" t="s">
         <v>28</v>
       </c>
@@ -6189,11 +6199,10 @@
       <c r="AM10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AN10" s="51"/>
-    </row>
-    <row r="11" spans="1:40">
+    </row>
+    <row r="11" spans="1:40" s="51" customFormat="1">
       <c r="A11" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" s="51">
         <v>1</v>
@@ -6232,10 +6241,10 @@
         <v>19</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P11" s="51" t="s">
         <v>106</v>
@@ -6276,44 +6285,43 @@
       <c r="AB11" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="AC11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN11" s="51"/>
+      <c r="AC11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM11" s="73" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:40" s="51" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -6325,7 +6333,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>28</v>
@@ -6352,10 +6360,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>106</v>
@@ -6364,7 +6372,7 @@
         <v>314</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6435,7 +6443,7 @@
     </row>
     <row r="13" spans="1:40" s="51" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -6447,7 +6455,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>28</v>
@@ -6474,10 +6482,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>106</v>
@@ -6486,7 +6494,7 @@
         <v>314</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6557,7 +6565,7 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -6596,13 +6604,13 @@
         <v>19</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>28</v>
@@ -6617,19 +6625,19 @@
         <v>28</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="X14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6643,7 +6651,7 @@
     </row>
     <row r="15" spans="1:40" s="51" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B15" s="46">
         <v>1</v>
@@ -6682,10 +6690,10 @@
         <v>19</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O15" s="68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>106</v>
@@ -6765,7 +6773,7 @@
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6804,10 +6812,10 @@
         <v>19</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O16" s="68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>106</v>
@@ -6887,7 +6895,7 @@
     </row>
     <row r="17" spans="1:40" s="51" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6926,10 +6934,10 @@
         <v>19</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>106</v>
@@ -7010,136 +7018,51 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19353BCC-E627-4564-B2A8-CDA0A6FF6E9F}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="5" max="5" width="116.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="51" customFormat="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="46">
-        <v>1</v>
-      </c>
-      <c r="C2" s="46">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
-      <c r="A3" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3" s="46">
-        <v>1</v>
-      </c>
-      <c r="C3" s="46">
-        <v>2</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
-      <c r="A4" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" s="46">
-        <v>1</v>
-      </c>
-      <c r="C4" s="46">
-        <v>3</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
-      <c r="A5" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="46">
-        <v>1</v>
-      </c>
-      <c r="C5" s="46">
-        <v>4</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>19</v>
+      <c r="D1" s="40" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -7148,6 +7071,165 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="116.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="51" customFormat="1">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="46">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46">
+        <v>1</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A4" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="46">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46">
+        <v>2</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A5" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46">
+        <v>3</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A6" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="46">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46">
+        <v>4</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB965DA-197B-4614-A4A7-724632791DDF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
@@ -7183,37 +7265,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N1" s="64" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -7250,7 +7332,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7305,7 +7387,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -7344,7 +7426,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
@@ -7372,7 +7454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E0121-A3E3-4E0C-A6C2-D14C419C35E6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -7397,13 +7479,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7414,7 +7496,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7428,7 +7510,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7448,7 +7530,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7468,7 +7550,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -7488,7 +7570,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7508,7 +7590,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7528,7 +7610,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7548,7 +7630,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7568,7 +7650,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7588,7 +7670,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7611,7 +7693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0466C4-2A7E-450A-B61A-8C9FD13A7C54}">
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -7639,55 +7721,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7707,7 +7789,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>151</v>
@@ -7743,7 +7825,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S2" s="51" t="s">
         <v>19</v>
@@ -7805,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7867,7 +7949,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7882,17 +7964,728 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T24"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.1796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+    </row>
+    <row r="3" spans="1:23" s="16" customFormat="1">
+      <c r="A3" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="60"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" s="16" customFormat="1">
+      <c r="A4" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
+        <v>2</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="60"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56">
+        <v>3</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="60"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="31" customFormat="1">
+      <c r="A6" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="70">
+        <v>1</v>
+      </c>
+      <c r="C6" s="70">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+    </row>
+    <row r="7" spans="1:23" s="31" customFormat="1">
+      <c r="A7" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="70">
+        <v>1</v>
+      </c>
+      <c r="C7" s="70">
+        <v>2</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+    </row>
+    <row r="8" spans="1:23" s="30" customFormat="1">
+      <c r="A8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="46">
+        <v>1</v>
+      </c>
+      <c r="C8" s="46">
+        <v>1</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+    </row>
+    <row r="9" spans="1:23" s="30" customFormat="1">
+      <c r="A9" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="46">
+        <v>1</v>
+      </c>
+      <c r="C9" s="46">
+        <v>2</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+    </row>
+    <row r="10" spans="1:23" s="30" customFormat="1">
+      <c r="A10" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="46">
+        <v>1</v>
+      </c>
+      <c r="C10" s="46">
+        <v>3</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+    </row>
+    <row r="11" spans="1:23" s="30" customFormat="1">
+      <c r="A11" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="46">
+        <v>1</v>
+      </c>
+      <c r="C11" s="46">
+        <v>4</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="46">
+        <v>1</v>
+      </c>
+      <c r="C12" s="46">
+        <v>1</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
@@ -7912,9 +8705,11 @@
     <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -7925,58 +8720,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="T1" s="42" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="16" customFormat="1">
+        <v>406</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="16" customFormat="1">
       <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
@@ -7987,13 +8788,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -8037,8 +8838,14 @@
       <c r="T2" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="16" customFormat="1">
+      <c r="U2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1">
       <c r="A3" s="46" t="s">
         <v>27</v>
       </c>
@@ -8049,13 +8856,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8099,8 +8906,14 @@
       <c r="T3" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
@@ -8114,10 +8927,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -8138,31 +8951,37 @@
         <v>19</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>413</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="51" t="s">
         <v>111</v>
       </c>
@@ -8223,8 +9042,14 @@
       <c r="T5" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="51" t="s">
         <v>38</v>
       </c>
@@ -8280,13 +9105,19 @@
         <v>28</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="T6" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" s="39" customFormat="1">
+      <c r="U6" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="39" customFormat="1">
       <c r="A7" s="51" t="s">
         <v>38</v>
       </c>
@@ -8297,13 +9128,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G7" s="51" t="s">
         <v>59</v>
@@ -8324,7 +9155,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N7" s="51" t="s">
         <v>28</v>
@@ -8347,8 +9178,14 @@
       <c r="T7" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="39" customFormat="1">
+      <c r="U7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="39" customFormat="1">
       <c r="A8" s="51" t="s">
         <v>38</v>
       </c>
@@ -8359,13 +9196,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G8" s="51" t="s">
         <v>59</v>
@@ -8386,7 +9223,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N8" s="51" t="s">
         <v>28</v>
@@ -8409,10 +9246,16 @@
       <c r="T8" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B9" s="51">
         <v>1</v>
@@ -8421,13 +9264,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>59</v>
@@ -8448,7 +9291,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N9" s="51" t="s">
         <v>28</v>
@@ -8471,10 +9314,16 @@
       <c r="T9" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -8483,13 +9332,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G10" s="51" t="s">
         <v>59</v>
@@ -8510,7 +9359,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N10" s="51" t="s">
         <v>28</v>
@@ -8533,10 +9382,16 @@
       <c r="T10" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="55" customFormat="1">
+      <c r="U10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="55" customFormat="1">
       <c r="A11" s="55" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B11" s="55">
         <v>1</v>
@@ -8545,13 +9400,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>28</v>
@@ -8595,10 +9450,16 @@
       <c r="T11" s="55" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" s="55" customFormat="1">
+      <c r="U11" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="55" customFormat="1">
       <c r="A12" s="55" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B12" s="55">
         <v>1</v>
@@ -8607,137 +9468,149 @@
         <v>2</v>
       </c>
       <c r="D12" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="51">
+        <v>1</v>
+      </c>
+      <c r="C13" s="51">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="51">
+        <v>1</v>
+      </c>
+      <c r="C14" s="51">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="B13" s="51">
-        <v>1</v>
-      </c>
-      <c r="C13" s="51">
-        <v>1</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="B14" s="51">
-        <v>1</v>
-      </c>
-      <c r="C14" s="51">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>413</v>
-      </c>
       <c r="E14" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G14" s="51" t="s">
         <v>59</v>
@@ -8781,10 +9654,16 @@
       <c r="T14" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B15" s="51">
         <v>1</v>
@@ -8793,13 +9672,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>59</v>
@@ -8843,10 +9722,16 @@
       <c r="T15" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B16" s="51">
         <v>1</v>
@@ -8855,13 +9740,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G16" s="51" t="s">
         <v>59</v>
@@ -8905,10 +9790,16 @@
       <c r="T16" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" s="46" customFormat="1">
+      <c r="U16" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -8917,13 +9808,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -8967,10 +9858,16 @@
       <c r="T17" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" s="46" customFormat="1">
+      <c r="U17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8979,13 +9876,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -9029,10 +9926,16 @@
       <c r="T18" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" s="46" customFormat="1">
+      <c r="U18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -9041,13 +9944,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -9091,10 +9994,16 @@
       <c r="T19" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -9103,13 +10012,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>59</v>
@@ -9130,7 +10039,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9153,10 +10062,16 @@
       <c r="T20" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9165,13 +10080,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9192,7 +10107,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9215,10 +10130,16 @@
       <c r="T21" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -9227,13 +10148,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9254,7 +10175,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9277,10 +10198,16 @@
       <c r="T22" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" s="31" customFormat="1">
+      <c r="U22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="31" customFormat="1">
       <c r="A23" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" s="70">
         <v>1</v>
@@ -9289,13 +10216,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>28</v>
@@ -9339,25 +10266,31 @@
       <c r="T23" s="70" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="70" customFormat="1">
+      <c r="U23" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="70" customFormat="1">
       <c r="A24" s="70" t="s">
-        <v>564</v>
+        <v>222</v>
       </c>
       <c r="B24" s="70">
         <v>1</v>
       </c>
       <c r="C24" s="70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>413</v>
+        <v>28</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="F24" s="70" t="s">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="G24" s="70" t="s">
         <v>28</v>
@@ -9366,16 +10299,16 @@
         <v>19</v>
       </c>
       <c r="I24" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J24" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K24" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M24" s="70" t="s">
         <v>28</v>
@@ -9399,6 +10332,80 @@
         <v>28</v>
       </c>
       <c r="T24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="70" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="71">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" s="70" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9408,717 +10415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
-  <dimension ref="A1:W12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.1796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-    </row>
-    <row r="3" spans="1:23" s="16" customFormat="1">
-      <c r="A3" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="56">
-        <v>1</v>
-      </c>
-      <c r="C3" s="56">
-        <v>1</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="60"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" s="16" customFormat="1">
-      <c r="A4" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="56">
-        <v>1</v>
-      </c>
-      <c r="C4" s="56">
-        <v>2</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="60"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="56">
-        <v>1</v>
-      </c>
-      <c r="C5" s="56">
-        <v>3</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="60"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="31" customFormat="1">
-      <c r="A6" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="70">
-        <v>1</v>
-      </c>
-      <c r="C6" s="70">
-        <v>1</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-    </row>
-    <row r="7" spans="1:23" s="31" customFormat="1">
-      <c r="A7" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="70">
-        <v>1</v>
-      </c>
-      <c r="C7" s="70">
-        <v>2</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-    </row>
-    <row r="8" spans="1:23" s="30" customFormat="1">
-      <c r="A8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="46">
-        <v>1</v>
-      </c>
-      <c r="C8" s="46">
-        <v>1</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-    </row>
-    <row r="9" spans="1:23" s="30" customFormat="1">
-      <c r="A9" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="46">
-        <v>1</v>
-      </c>
-      <c r="C9" s="46">
-        <v>2</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-    </row>
-    <row r="10" spans="1:23" s="30" customFormat="1">
-      <c r="A10" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="46">
-        <v>1</v>
-      </c>
-      <c r="C10" s="46">
-        <v>3</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-    </row>
-    <row r="11" spans="1:23" s="30" customFormat="1">
-      <c r="A11" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="46">
-        <v>1</v>
-      </c>
-      <c r="C11" s="46">
-        <v>4</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="46">
-        <v>1</v>
-      </c>
-      <c r="C12" s="46">
-        <v>1</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FBF4A6-7E84-4BBE-931C-E882244C8ADD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -10158,31 +10455,31 @@
         <v>160</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K1" s="51" t="s">
         <v>165</v>
       </c>
       <c r="L1" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="51" t="s">
         <v>196</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>197</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>13</v>
@@ -10199,31 +10496,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>104</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>170</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -10237,7 +10534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9DE1AC-8EA2-496B-95D5-07EEE381D497}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -10267,16 +10564,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>97</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>178</v>
@@ -10302,7 +10599,7 @@
         <v>106</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -10313,7 +10610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
@@ -10359,76 +10656,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AB1" s="51"/>
       <c r="AC1" s="51"/>
@@ -10460,10 +10757,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>59</v>
@@ -10549,10 +10846,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>59</v>
@@ -10641,10 +10938,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -10738,10 +11035,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>28</v>
@@ -11160,7 +11457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CD396-3ADF-479F-9D73-2015DDAAC290}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
@@ -11213,94 +11510,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q1" s="51" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -11968,7 +12265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -12006,37 +12303,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>96</v>
@@ -12080,7 +12377,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>149</v>
@@ -12100,7 +12397,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>19</v>
@@ -12127,7 +12424,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="63" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="N3" s="56" t="s">
         <v>30</v>
@@ -12147,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>19</v>
@@ -12186,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>19</v>
@@ -12290,7 +12587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A92E8-DE86-4923-B4B2-EC009BFCBA1D}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
@@ -12311,103 +12608,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -12416,7 +12713,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12461,13 +12758,13 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="S2" s="48"/>
       <c r="T2" s="48"/>
@@ -12478,19 +12775,19 @@
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -12505,10 +12802,10 @@
         <v>28</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH2" s="5">
         <v>89377</v>
@@ -12529,7 +12826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59212AD0-C31E-48EC-B224-4D88AD8AFE23}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -12550,34 +12847,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12616,7 +12913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5574DB-4887-4CA1-ACBF-C2C7DC4C1F7B}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -12635,28 +12932,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>97</v>
@@ -12667,7 +12964,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12683,10 +12980,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
@@ -12709,7 +13006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAD89E8-F03C-4910-BC41-AC806E1DB4A1}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -12733,87 +13030,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>249</v>
       </c>
       <c r="AC1" s="51" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12849,16 +13146,16 @@
         <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>181</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>28</v>
@@ -12873,24 +13170,24 @@
         <v>181</v>
       </c>
       <c r="W2" s="51" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="X2" s="51" t="s">
         <v>149</v>
       </c>
       <c r="Y2" s="51"/>
       <c r="Z2" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AA2" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AB2" s="51"/>
       <c r="AC2" s="51"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -12941,7 +13238,7 @@
         <v>181</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
@@ -12986,8 +13283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AN4" sqref="AN4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14174,8 +14471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15127,7 +15424,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15251,8 +15548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15434,7 +15731,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15536,7 +15833,7 @@
         <v>181</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -15578,28 +15875,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>178</v>
@@ -15625,7 +15922,7 @@
         <v>987654321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -16039,6 +16336,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16255,26 +16571,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16293,24 +16608,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\March\03March\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\March\03March\Latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F9F68F-D92B-4F52-B1A9-8D0716B1FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C2D0EA-0E9F-4E12-8A69-1FD3DE75C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="569">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1794,6 +1794,9 @@
   </si>
   <si>
     <t>VERIFY_TASK</t>
+  </si>
+  <si>
+    <t>TASKS_TAB</t>
   </si>
 </sst>
 </file>
@@ -7024,10 +7027,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19353BCC-E627-4564-B2A8-CDA0A6FF6E9F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7035,9 +7038,10 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -7050,8 +7054,11 @@
       <c r="D1" s="40" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="40" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -7063,6 +7070,9 @@
       </c>
       <c r="D2" t="s">
         <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8678,9 +8688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10341,14 +10350,14 @@
         <v>425</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" s="51" customFormat="1">
       <c r="A25" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="71">
         <v>1</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="71">
         <v>1</v>
       </c>
       <c r="D25" s="70" t="s">
@@ -10366,7 +10375,7 @@
       <c r="H25" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="71" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="70" t="s">
@@ -16336,6 +16345,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -16343,15 +16361,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16572,19 +16581,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
